--- a/biology/Biochimie/Géranylgéranyltransférase_de_type_1/Géranylgéranyltransférase_de_type_1.xlsx
+++ b/biology/Biochimie/Géranylgéranyltransférase_de_type_1/Géranylgéranyltransférase_de_type_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9ranylg%C3%A9ranyltransf%C3%A9rase_de_type_1</t>
+          <t>Géranylgéranyltransférase_de_type_1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Une géranylgéranyltransférase de type 1 est une transférase qui catalyse la réaction :
@@ -488,8 +500,8 @@
         ⇌
     {\displaystyle \rightleftharpoons }
   S-géranylgéranyl-protéine + pyrophosphate.
-C'est l'une des trois enzymes du groupe des prényltransférases. Elle lie un groupe géranylgéranyle au résidu de cystéine d'une séquence consensus CaaX C-terminale d'une protéine. Cette modification post-traductionnelle est essentielle à la fonctionnalité physiologique de certaines protéines qui nécessitent d'être ancrées à une membrane biologique, notamment la membrane plasmique, pour être fonctionnelles, par exemple pour intervenir dans un mécanisme de signalisation cellulaire. Des inhibiteurs de géranylgéranyltransférase sont étudiés comme anticancéreux[2].
-Ces enzymes sont constituées de deux sous-unités, dites α et β, codées chez l'homme respectivement par les gènes FNTA et PGGT1B. Ces deux sous-unités sont formées principalement d'hélices α. La sous-unité β forme un complexe avec un cation de zinc Zn2+ au bord du site actif. L'enzyme présente une poche de liaison hydrophobe pour le géranylgéranyl-pyrophosphate. Tous les substrats des géranylgéranyltransférases ont un résidu de cystéine parmi leurs quatre résidus C-terminaux. Ce résidu de cystéine forme un complexe avec le zinc qui déclenche une substitution nucléophile bimoléculaire SN2 sur le géranylgéranyl-pyrophosphate ayant pour effet de déplacer le groupe pyrophosphate[3],[4].
+C'est l'une des trois enzymes du groupe des prényltransférases. Elle lie un groupe géranylgéranyle au résidu de cystéine d'une séquence consensus CaaX C-terminale d'une protéine. Cette modification post-traductionnelle est essentielle à la fonctionnalité physiologique de certaines protéines qui nécessitent d'être ancrées à une membrane biologique, notamment la membrane plasmique, pour être fonctionnelles, par exemple pour intervenir dans un mécanisme de signalisation cellulaire. Des inhibiteurs de géranylgéranyltransférase sont étudiés comme anticancéreux.
+Ces enzymes sont constituées de deux sous-unités, dites α et β, codées chez l'homme respectivement par les gènes FNTA et PGGT1B. Ces deux sous-unités sont formées principalement d'hélices α. La sous-unité β forme un complexe avec un cation de zinc Zn2+ au bord du site actif. L'enzyme présente une poche de liaison hydrophobe pour le géranylgéranyl-pyrophosphate. Tous les substrats des géranylgéranyltransférases ont un résidu de cystéine parmi leurs quatre résidus C-terminaux. Ce résidu de cystéine forme un complexe avec le zinc qui déclenche une substitution nucléophile bimoléculaire SN2 sur le géranylgéranyl-pyrophosphate ayant pour effet de déplacer le groupe pyrophosphate,.
 </t>
         </is>
       </c>
